--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292897</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292897</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63219.11362402346</v>
+        <v>8016355.59413155</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63219.11362402346</v>
+        <v>8016355.59413155</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609150262.950391</v>
+        <v>57504903.08274197</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12644.46670095635</v>
+        <v>1269730.127553276</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24720.54977883234</v>
+        <v>2462703.298499845</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36756.72012943558</v>
+        <v>3649589.778537325</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50898.71636722165</v>
+        <v>4644781.03531098</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63419.40534274768</v>
+        <v>5815959.15077378</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75929.10538100793</v>
+        <v>6988694.37358675</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88872.20764305299</v>
+        <v>8253706.30234664</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101613.0712832129</v>
+        <v>9487868.660823062</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115823.7741269377</v>
+        <v>10477284.03570396</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128013.9138154847</v>
+        <v>11737454.36291482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140251.5257235266</v>
+        <v>13002610.62430362</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152217.9507093403</v>
+        <v>14212754.66540932</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164306.9647860631</v>
+        <v>15441593.54287868</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178564.9226882748</v>
+        <v>16380974.23820876</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198300.2139952879</v>
+        <v>16556978.79746025</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>264.0000000000697</v>
@@ -27055,10 +27055,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>154.0000000000701</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,13 +27147,13 @@
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
